--- a/src/test/java/DemoQA.xlsx
+++ b/src/test/java/DemoQA.xlsx
@@ -51,7 +51,7 @@
     <t>Pulpfiction1!</t>
   </si>
   <si>
-    <t>mia</t>
+    <t>MIA.WALLACE</t>
   </si>
   <si>
     <t>pulpfiction1!</t>
